--- a/Assets/Localization/Localization.xlsx
+++ b/Assets/Localization/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Fork\2D-Shooter\Assets\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{495D4B9B-184D-4316-A3EB-748C20CB1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BAD6E3-ABF8-4BED-8D34-70DC18DC4DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64BBFB6-BA87-4383-8194-F36889255C96}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>Фон</t>
+  </si>
+  <si>
+    <t>Money_Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деньги: </t>
+  </si>
+  <si>
+    <t>Card_Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card № </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта № </t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -243,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C11" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C11" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}" name="Таблица1" displayName="Таблица1" ref="A1:C13" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C13" xr:uid="{C012C5BE-4A12-4DBA-B661-63B8FF14F87E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8B3D1B9D-021C-4E84-BD85-9194860C7335}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Keys/Key/@Name" xmlDataType="string"/>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,6 +703,28 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
